--- a/NovDec22/MetaboAnalyst/XCMSOnline_NovDec22_CombinedSettingsETC_plus_MinFrac_0.25/VennDiagrams/Shared_Items_Sheets_Pairwise_SecondTimePoint.xlsx
+++ b/NovDec22/MetaboAnalyst/XCMSOnline_NovDec22_CombinedSettingsETC_plus_MinFrac_0.25/VennDiagrams/Shared_Items_Sheets_Pairwise_SecondTimePoint.xlsx
@@ -1,280 +1,324 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Jamie_EXT/Projects/Metabolomics/NovDec22/MetaboAnalyst/XCMSOnline_NovDec22_CombinedSettingsETC_plus_MinFrac_0.25/VennDiagrams/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739579BA-F0F4-6742-9F6E-A8E384AE2CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="16760" yWindow="480" windowWidth="12040" windowHeight="17520" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="DroVsM_and_XvmVsM" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="DroVsM_and_FocVsM" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="XvmVsM_and_FocVsM" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="DroVsM_and_XvmVsM_and_FocVsM" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Unique_to_ DroVsM" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Unique_to_ XvmVsM" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Unique_to_ FocVsM" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="DroVsM_and_XvmVsM" sheetId="1" r:id="rId1"/>
+    <sheet name="DroVsM_and_FocVsM" sheetId="2" r:id="rId2"/>
+    <sheet name="XvmVsM_and_FocVsM" sheetId="3" r:id="rId3"/>
+    <sheet name="DroVsM_and_XvmVsM_and_FocVsM" sheetId="4" r:id="rId4"/>
+    <sheet name="Unique_to_ DroVsM" sheetId="5" r:id="rId5"/>
+    <sheet name="Unique_to_ XvmVsM" sheetId="6" r:id="rId6"/>
+    <sheet name="Unique_to_ FocVsM" sheetId="7" r:id="rId7"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
-  <si>
-    <t xml:space="preserve">M330.263T1492.022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M847.517T1163.004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M523.599T1382.768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M441.224T1179.269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M609.455T1145.906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M471.796T1446.028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M374.303T1319.161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M504.265T1099.137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M430.319T1557.453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M576.484T1557.453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M765.518T1313.696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M821.505T1179.269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M541.474T1573.977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M549.431T1507.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M495.298T1036.333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M479.188T913.185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M537.533T1295.888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M619.438T1245.233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M487.775T1256.694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M329.157T1608.526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M423.212T1319.031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M828.538T1289.688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M677.438T1339.916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M535.409T1440.116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M986.591T1195.638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M577.49T1591.335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M423.211T1338.363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M985.571T1146.934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M808.52T1220.972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M659.418T1406.262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M841.471T1389.363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M330.263T1439.913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M330.262T1456.934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M330.261T1473.013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M545.456T1607.833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M522.261T1109.944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M772.55T1170.538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M575.481T1540.694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M575.479T1473.048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M635.491T1472.841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M467.383T1523.593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M640.557T1608.472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M951.603T1424.253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M415.326T1295.888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M343.224T1621.712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M492.408T1557.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M534.444T1557.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M628.514T1473.756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M629.529T1601.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M669.562T1624.559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M629.509T1624.418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M691.433T1253.346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M691.436T1356.203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M386.164T943.456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M764.517T1325.086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M575.479T1456.772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M807.348T918.929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M682.262T843.183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M423.198T1506.423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M425.215T1355.365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M425.216T1401.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M339.172T1490.329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M465.265T1237.073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M605.427T1212.039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M576.484T1473.551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M535.447T1540.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M449.347T1490.033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M578.503T1590.788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M629.464T1456.367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M295.151T1624.873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M605.416T1473.993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M423.321T1473.286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M652.503T1490.314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M585.283T918.479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M629.459T1473.698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M513.307T1059.952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M516.411T1568.021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M669.531T1507.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M629.463T1474.173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M449.365T1540.699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M351.253T1019.694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M331.187T1104.601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M569.292T994.771</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="91">
+  <si>
+    <t>M330.263T1492.022</t>
+  </si>
+  <si>
+    <t>M847.517T1163.004</t>
+  </si>
+  <si>
+    <t>M523.599T1382.768</t>
+  </si>
+  <si>
+    <t>M441.224T1179.269</t>
+  </si>
+  <si>
+    <t>M609.455T1145.906</t>
+  </si>
+  <si>
+    <t>M471.796T1446.028</t>
+  </si>
+  <si>
+    <t>M374.303T1319.161</t>
+  </si>
+  <si>
+    <t>M504.265T1099.137</t>
+  </si>
+  <si>
+    <t>M430.319T1557.453</t>
+  </si>
+  <si>
+    <t>M576.484T1557.453</t>
+  </si>
+  <si>
+    <t>M765.518T1313.696</t>
+  </si>
+  <si>
+    <t>M821.505T1179.269</t>
+  </si>
+  <si>
+    <t>M541.474T1573.977</t>
+  </si>
+  <si>
+    <t>M549.431T1507.08</t>
+  </si>
+  <si>
+    <t>M495.298T1036.333</t>
+  </si>
+  <si>
+    <t>M479.188T913.185</t>
+  </si>
+  <si>
+    <t>M537.533T1295.888</t>
+  </si>
+  <si>
+    <t>M619.438T1245.233</t>
+  </si>
+  <si>
+    <t>M487.775T1256.694</t>
+  </si>
+  <si>
+    <t>M329.157T1608.526</t>
+  </si>
+  <si>
+    <t>M423.212T1319.031</t>
+  </si>
+  <si>
+    <t>M828.538T1289.688</t>
+  </si>
+  <si>
+    <t>M677.438T1339.916</t>
+  </si>
+  <si>
+    <t>M535.409T1440.116</t>
+  </si>
+  <si>
+    <t>M986.591T1195.638</t>
+  </si>
+  <si>
+    <t>M577.49T1591.335</t>
+  </si>
+  <si>
+    <t>M423.211T1338.363</t>
+  </si>
+  <si>
+    <t>M985.571T1146.934</t>
+  </si>
+  <si>
+    <t>M808.52T1220.972</t>
+  </si>
+  <si>
+    <t>M659.418T1406.262</t>
+  </si>
+  <si>
+    <t>M841.471T1389.363</t>
+  </si>
+  <si>
+    <t>M330.263T1439.913</t>
+  </si>
+  <si>
+    <t>M330.262T1456.934</t>
+  </si>
+  <si>
+    <t>M330.261T1473.013</t>
+  </si>
+  <si>
+    <t>M545.456T1607.833</t>
+  </si>
+  <si>
+    <t>M522.261T1109.944</t>
+  </si>
+  <si>
+    <t>M772.55T1170.538</t>
+  </si>
+  <si>
+    <t>M575.481T1540.694</t>
+  </si>
+  <si>
+    <t>M575.479T1473.048</t>
+  </si>
+  <si>
+    <t>M635.491T1472.841</t>
+  </si>
+  <si>
+    <t>M467.383T1523.593</t>
+  </si>
+  <si>
+    <t>M640.557T1608.472</t>
+  </si>
+  <si>
+    <t>M951.603T1424.253</t>
+  </si>
+  <si>
+    <t>M415.326T1295.888</t>
+  </si>
+  <si>
+    <t>M343.224T1621.712</t>
+  </si>
+  <si>
+    <t>M492.408T1557.26</t>
+  </si>
+  <si>
+    <t>M534.444T1557.26</t>
+  </si>
+  <si>
+    <t>M628.514T1473.756</t>
+  </si>
+  <si>
+    <t>M629.529T1601.79</t>
+  </si>
+  <si>
+    <t>M669.562T1624.559</t>
+  </si>
+  <si>
+    <t>M629.509T1624.418</t>
+  </si>
+  <si>
+    <t>M691.433T1253.346</t>
+  </si>
+  <si>
+    <t>M691.436T1356.203</t>
+  </si>
+  <si>
+    <t>M386.164T943.456</t>
+  </si>
+  <si>
+    <t>M764.517T1325.086</t>
+  </si>
+  <si>
+    <t>M575.479T1456.772</t>
+  </si>
+  <si>
+    <t>M807.348T918.929</t>
+  </si>
+  <si>
+    <t>M682.262T843.183</t>
+  </si>
+  <si>
+    <t>M423.198T1506.423</t>
+  </si>
+  <si>
+    <t>M425.215T1355.365</t>
+  </si>
+  <si>
+    <t>M425.216T1401.37</t>
+  </si>
+  <si>
+    <t>M339.172T1490.329</t>
+  </si>
+  <si>
+    <t>M465.265T1237.073</t>
+  </si>
+  <si>
+    <t>M605.427T1212.039</t>
+  </si>
+  <si>
+    <t>M576.484T1473.551</t>
+  </si>
+  <si>
+    <t>M535.447T1540.43</t>
+  </si>
+  <si>
+    <t>M449.347T1490.033</t>
+  </si>
+  <si>
+    <t>M578.503T1590.788</t>
+  </si>
+  <si>
+    <t>M629.464T1456.367</t>
+  </si>
+  <si>
+    <t>M295.151T1624.873</t>
+  </si>
+  <si>
+    <t>M605.416T1473.993</t>
+  </si>
+  <si>
+    <t>M423.321T1473.286</t>
+  </si>
+  <si>
+    <t>M652.503T1490.314</t>
+  </si>
+  <si>
+    <t>M585.283T918.479</t>
+  </si>
+  <si>
+    <t>M629.459T1473.698</t>
+  </si>
+  <si>
+    <t>M513.307T1059.952</t>
+  </si>
+  <si>
+    <t>M516.411T1568.021</t>
+  </si>
+  <si>
+    <t>M669.531T1507.08</t>
+  </si>
+  <si>
+    <t>M629.463T1474.173</t>
+  </si>
+  <si>
+    <t>M449.365T1540.699</t>
+  </si>
+  <si>
+    <t>M351.253T1019.694</t>
+  </si>
+  <si>
+    <t>M331.187T1104.601</t>
+  </si>
+  <si>
+    <t>M569.292T994.771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not shared between t1 and t2 </t>
+  </si>
+  <si>
+    <t>Other features at 1591 in other groups. No FC data for 1591 but 1591 goes up</t>
+  </si>
+  <si>
+    <t>sharved with XVM</t>
+  </si>
+  <si>
+    <t>T2 only</t>
+  </si>
+  <si>
+    <t>Shared with drought</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T2 only </t>
+  </si>
+  <si>
+    <t>same RT in Foc</t>
+  </si>
+  <si>
+    <t>feature at 1356 in Xvm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -282,13 +326,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -303,13 +366,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -591,889 +666,972 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A36"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:A34"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
+      <c r="B1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>56</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
+      <c r="B5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>64</v>
+      </c>
+      <c r="B8" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
+      <c r="B9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
+      <c r="B11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
+      <c r="B12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
+      <c r="B13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
+      <c r="B16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
+      <c r="B17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>82</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>